--- a/data/pairwiseFstMatrixRealSFS.xlsx
+++ b/data/pairwiseFstMatrixRealSFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/student/Documents/GitHub/floridaKeysMcavSnp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D297635-6881-0F45-A96C-07D57B4EB8B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF43923-8539-294C-94C4-31A75FD8C2E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14540" xr2:uid="{4142C50C-067C-1647-A2AF-BD7FB3815F88}"/>
   </bookViews>
